--- a/photoperiod_schedule.xlsx
+++ b/photoperiod_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D5ADA1-70D5-4149-BC3E-1DE48A97FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC8249A-A703-784E-96E8-F64D3C4A5F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{35F109BE-B485-E243-89CF-85402D4A62F1}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{35F109BE-B485-E243-89CF-85402D4A62F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C89A7CFC-1143-0F4D-ACC3-7E0CB42535E9}</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{C89A7CFC-1143-0F4D-ACC3-7E0CB42535E9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Forgot this week</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,13 +105,26 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,13 +139,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +165,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rouleau-Desrochers, Christophe" id="{76990AB3-B223-9E4E-BDDE-FE223B7AA748}" userId="S::kb991904@ens.uqam.ca::314d6d37-63ce-44ec-9435-5302ec774da0" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,12 +468,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D8" dT="2024-05-02T01:06:11.51" personId="{76990AB3-B223-9E4E-BDDE-FE223B7AA748}" id="{C89A7CFC-1143-0F4D-ACC3-7E0CB42535E9}">
+    <text>Forgot this week</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F84D7D-0519-C34E-8740-1E413812E5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F84D7D-0519-C34E-8740-1E413812E5D0}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -496,7 +545,7 @@
         <v>0.81527777777777777</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D10" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D13" si="0">C4-B4</f>
         <v>0.52152777777777781</v>
       </c>
     </row>
@@ -546,16 +595,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>45404</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>0.25347222222222221</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>0.84444444444444444</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0.59097222222222223</v>
       </c>
@@ -591,22 +640,49 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="5">
+        <v>45790</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63611111111111118</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="5">
+        <v>45797</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.22361111111111112</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64861111111111114</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="9">
+        <v>45804</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65972222222222221</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -716,5 +792,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>